--- a/biology/Biologie cellulaire et moléculaire/Anaphase/Anaphase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anaphase/Anaphase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anaphase (du grec ancien ἀνά, ana : « en haut » et φάσις, fasis : « apparence ») est une phase très rapide de la méiose et de la mitose où les chromatides sœurs (durant la mitose ou la méiose II) ou les chromosomes homologues (durant la méiose I) se séparent et migrent vers les pôles opposés de la cellule.
 Durant cette phase, à la suite d'un signal spécifique, les chromatides sœurs se séparent brutalement. Elles sont alors « tirées » par les microtubules en direction du pôle auquel elles sont rattachées. Les chromatides migrent rapidement à une vitesse d'environ 1 µm/min. On divise généralement l'anaphase en deux phases distinctes.
